--- a/output/semantic_activity_indices.xlsx
+++ b/output/semantic_activity_indices.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t xml:space="preserve">VAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWI</t>
   </si>
   <si>
     <t xml:space="preserve">SCI</t>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">VAI_MA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWI_MA3</t>
   </si>
   <si>
     <t xml:space="preserve">SCI_MA3</t>
@@ -484,8 +478,6 @@
     <col min="8" max="8" width="11.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="11.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="11.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,12 +511,6 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -537,26 +523,22 @@
         <v>38.6334665152282</v>
       </c>
       <c r="D2" t="n">
-        <v>55.62827926269</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
+        <v>30.8450018972237</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39.1982495645415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41.457261063158</v>
+      </c>
+      <c r="H2" t="n">
         <v>100</v>
       </c>
-      <c r="F2" t="n">
-        <v>26.9757146607522</v>
-      </c>
-      <c r="G2" t="n">
-        <v>47.2868775366678</v>
-      </c>
-      <c r="H2" t="n">
-        <v>41.2934696728539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
+      <c r="I2"/>
       <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -569,30 +551,24 @@
         <v>7.52733399377144</v>
       </c>
       <c r="D3" t="n">
-        <v>79.5377760148974</v>
+        <v>39.6671289875173</v>
       </c>
       <c r="E3" t="n">
-        <v>39.6671289875173</v>
+        <v>13.1883142336907</v>
       </c>
       <c r="F3" t="n">
-        <v>6.36645626872042</v>
+        <v>20.9576647910149</v>
       </c>
       <c r="G3" t="n">
-        <v>25.6296182385346</v>
+        <v>48.8615036702373</v>
       </c>
       <c r="H3" t="n">
-        <v>36.5160625129582</v>
+        <v>68.3550703414283</v>
       </c>
       <c r="I3" t="n">
-        <v>68.3550703414283</v>
+        <v>41.7815067767807</v>
       </c>
       <c r="J3" t="n">
-        <v>41.7815067767807</v>
-      </c>
-      <c r="K3" t="n">
-        <v>68.2932749815848</v>
-      </c>
-      <c r="L3" t="n">
         <v>67.4063800277393</v>
       </c>
     </row>
@@ -607,30 +583,24 @@
         <v>79.1837198213426</v>
       </c>
       <c r="D4" t="n">
-        <v>69.713769667167</v>
+        <v>62.5520110957004</v>
       </c>
       <c r="E4" t="n">
-        <v>62.5520110957004</v>
+        <v>33.6086350689461</v>
       </c>
       <c r="F4" t="n">
-        <v>16.7674664775546</v>
+        <v>23.9568771456928</v>
       </c>
       <c r="G4" t="n">
-        <v>29.2715421317002</v>
+        <v>12.6922287703529</v>
       </c>
       <c r="H4" t="n">
-        <v>29.3409208942623</v>
+        <v>70.9797814354119</v>
       </c>
       <c r="I4" t="n">
-        <v>70.9797814354119</v>
+        <v>42.0149057807417</v>
       </c>
       <c r="J4" t="n">
-        <v>42.0149057807417</v>
-      </c>
-      <c r="K4" t="n">
-        <v>67.0004991013617</v>
-      </c>
-      <c r="L4" t="n">
         <v>50.7628294036061</v>
       </c>
     </row>
@@ -645,30 +615,24 @@
         <v>39.3336635271109</v>
       </c>
       <c r="D5" t="n">
-        <v>51.7499516220208</v>
+        <v>50.0693481276006</v>
       </c>
       <c r="E5" t="n">
-        <v>50.0693481276006</v>
+        <v>59.7783293908943</v>
       </c>
       <c r="F5" t="n">
-        <v>39.0415266664466</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.71049924977253</v>
+        <v>48.1171482114801</v>
       </c>
       <c r="H5" t="n">
-        <v>35.9500254346438</v>
+        <v>71.605132445335</v>
       </c>
       <c r="I5" t="n">
-        <v>71.605132445335</v>
+        <v>42.6593995428169</v>
       </c>
       <c r="J5" t="n">
-        <v>42.6593995428169</v>
-      </c>
-      <c r="K5" t="n">
-        <v>63.7364799132013</v>
-      </c>
-      <c r="L5" t="n">
         <v>44.1516412390199</v>
       </c>
     </row>
@@ -683,30 +647,24 @@
         <v>9.46081527999704</v>
       </c>
       <c r="D6" t="n">
-        <v>69.745718450416</v>
+        <v>19.8335644937587</v>
       </c>
       <c r="E6" t="n">
-        <v>19.8335644937587</v>
+        <v>42.0916618992469</v>
       </c>
       <c r="F6" t="n">
-        <v>56.8097176292692</v>
+        <v>38.6422784333121</v>
       </c>
       <c r="G6" t="n">
-        <v>49.3245084830974</v>
+        <v>63.2785710630022</v>
       </c>
       <c r="H6" t="n">
-        <v>45.8653761741726</v>
+        <v>44.1878170187466</v>
       </c>
       <c r="I6" t="n">
-        <v>44.1878170187466</v>
+        <v>32.1841857262446</v>
       </c>
       <c r="J6" t="n">
-        <v>32.1841857262446</v>
-      </c>
-      <c r="K6" t="n">
-        <v>43.4007805861045</v>
-      </c>
-      <c r="L6" t="n">
         <v>47.0180305131761</v>
       </c>
     </row>
@@ -721,30 +679,24 @@
         <v>47.7580783716259</v>
       </c>
       <c r="D7" t="n">
-        <v>8.7066716858766</v>
+        <v>71.1511789181692</v>
       </c>
       <c r="E7" t="n">
-        <v>71.1511789181692</v>
+        <v>69.0655938743191</v>
       </c>
       <c r="F7" t="n">
-        <v>71.3429507038495</v>
+        <v>4.52796677209709</v>
       </c>
       <c r="G7" t="n">
-        <v>4.44843626873639</v>
+        <v>55.1998566968627</v>
       </c>
       <c r="H7" t="n">
-        <v>40.1441110198798</v>
+        <v>44.0901290947989</v>
       </c>
       <c r="I7" t="n">
-        <v>44.0901290947989</v>
+        <v>26.6070875804127</v>
       </c>
       <c r="J7" t="n">
-        <v>26.6070875804127</v>
-      </c>
-      <c r="K7" t="n">
-        <v>41.1724184527781</v>
-      </c>
-      <c r="L7" t="n">
         <v>43.2269995376791</v>
       </c>
     </row>
@@ -759,30 +711,24 @@
         <v>22.6023690896153</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0648652220416</v>
+        <v>38.6962552011096</v>
       </c>
       <c r="E8" t="n">
-        <v>38.6962552011096</v>
+        <v>34.5933567398378</v>
       </c>
       <c r="F8" t="n">
-        <v>27.5566476169321</v>
+        <v>49.9710621927009</v>
       </c>
       <c r="G8" t="n">
-        <v>64.9525914403331</v>
+        <v>45.9126919823256</v>
       </c>
       <c r="H8" t="n">
-        <v>39.1195264959871</v>
+        <v>66.3442447067781</v>
       </c>
       <c r="I8" t="n">
-        <v>66.3442447067781</v>
+        <v>28.3848123352413</v>
       </c>
       <c r="J8" t="n">
-        <v>28.3848123352413</v>
-      </c>
-      <c r="K8" t="n">
-        <v>38.7098974633191</v>
-      </c>
-      <c r="L8" t="n">
         <v>61.1650485436893</v>
       </c>
     </row>
@@ -797,30 +743,24 @@
         <v>14.7939895444829</v>
       </c>
       <c r="D9" t="n">
-        <v>62.358155482039</v>
+        <v>73.6477115117892</v>
       </c>
       <c r="E9" t="n">
-        <v>73.6477115117892</v>
+        <v>73.4799440578487</v>
       </c>
       <c r="F9" t="n">
-        <v>71.7470350441941</v>
+        <v>25.4273782385732</v>
       </c>
       <c r="G9" t="n">
-        <v>31.0716249524497</v>
+        <v>41.7636791194938</v>
       </c>
       <c r="H9" t="n">
-        <v>43.7029233605478</v>
+        <v>36.9005591553409</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9005591553409</v>
+        <v>12.8566289573847</v>
       </c>
       <c r="J9" t="n">
-        <v>12.8566289573847</v>
-      </c>
-      <c r="K9" t="n">
-        <v>45.2457070163148</v>
-      </c>
-      <c r="L9" t="n">
         <v>58.4373555247342</v>
       </c>
     </row>
@@ -835,30 +775,24 @@
         <v>1.1735282380559</v>
       </c>
       <c r="D10" t="n">
-        <v>28.3141003448636</v>
+        <v>62.9680998613037</v>
       </c>
       <c r="E10" t="n">
-        <v>62.9680998613037</v>
+        <v>32.7204553166365</v>
       </c>
       <c r="F10" t="n">
-        <v>45.4934068726753</v>
+        <v>1.64999856338014</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.8402435734473</v>
       </c>
       <c r="H10" t="n">
-        <v>49.3294814118294</v>
+        <v>50.4898498017443</v>
       </c>
       <c r="I10" t="n">
-        <v>50.4898498017443</v>
+        <v>8.07759656793588</v>
       </c>
       <c r="J10" t="n">
-        <v>8.07759656793588</v>
-      </c>
-      <c r="K10" t="n">
-        <v>40.9518125681288</v>
-      </c>
-      <c r="L10" t="n">
         <v>53.8141470180305</v>
       </c>
     </row>
@@ -873,30 +807,24 @@
         <v>8.26527192126888</v>
       </c>
       <c r="D11" t="n">
-        <v>32.1831818774836</v>
+        <v>24.8266296809986</v>
       </c>
       <c r="E11" t="n">
-        <v>24.8266296809986</v>
+        <v>17.9293425628718</v>
       </c>
       <c r="F11" t="n">
-        <v>18.8165622923831</v>
+        <v>9.63431466442058</v>
       </c>
       <c r="G11" t="n">
-        <v>14.1598277639303</v>
+        <v>39.2024025064874</v>
       </c>
       <c r="H11" t="n">
-        <v>24.6498234232167</v>
+        <v>47.7707939905336</v>
       </c>
       <c r="I11" t="n">
-        <v>47.7707939905336</v>
+        <v>3.14626671977493</v>
       </c>
       <c r="J11" t="n">
-        <v>3.14626671977493</v>
-      </c>
-      <c r="K11" t="n">
-        <v>32.575357459825</v>
-      </c>
-      <c r="L11" t="n">
         <v>44.4290337494221</v>
       </c>
     </row>
@@ -911,30 +839,24 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>37.2287901571279</v>
+        <v>45.4923717059639</v>
       </c>
       <c r="E12" t="n">
-        <v>45.4923717059639</v>
+        <v>51.2036030231937</v>
       </c>
       <c r="F12" t="n">
-        <v>59.4880585323966</v>
+        <v>15.6250736004145</v>
       </c>
       <c r="G12" t="n">
-        <v>12.3152486746484</v>
+        <v>61.4608603306208</v>
       </c>
       <c r="H12" t="n">
-        <v>47.9545255025898</v>
+        <v>57.9900256391059</v>
       </c>
       <c r="I12" t="n">
-        <v>57.9900256391059</v>
+        <v>12.8314388796042</v>
       </c>
       <c r="J12" t="n">
-        <v>12.8314388796042</v>
-      </c>
-      <c r="K12" t="n">
-        <v>47.0713900027395</v>
-      </c>
-      <c r="L12" t="n">
         <v>28.2015718908923</v>
       </c>
     </row>
@@ -949,30 +871,24 @@
         <v>30.2290447175438</v>
       </c>
       <c r="D13" t="n">
-        <v>71.8021979736069</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="E13" t="n">
-        <v>14.2857142857143</v>
+        <v>52.9340247207753</v>
       </c>
       <c r="F13" t="n">
-        <v>59.4934286595335</v>
+        <v>30.9257324872389</v>
       </c>
       <c r="G13" t="n">
-        <v>38.2792234782169</v>
+        <v>59.4731534851296</v>
       </c>
       <c r="H13" t="n">
-        <v>54.2891919347015</v>
+        <v>41.059855973829</v>
       </c>
       <c r="I13" t="n">
-        <v>41.059855973829</v>
+        <v>36.8250672528432</v>
       </c>
       <c r="J13" t="n">
-        <v>36.8250672528432</v>
-      </c>
-      <c r="K13" t="n">
-        <v>69.6769960435783</v>
-      </c>
-      <c r="L13" t="n">
         <v>34.6740638002774</v>
       </c>
     </row>
@@ -987,30 +903,24 @@
         <v>80.2461570409857</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>44.244105409154</v>
       </c>
       <c r="E14" t="n">
-        <v>44.244105409154</v>
+        <v>79.4421971091631</v>
       </c>
       <c r="F14" t="n">
-        <v>75.0552395779733</v>
+        <v>11.3378266040979</v>
       </c>
       <c r="G14" t="n">
-        <v>16.5488252931678</v>
+        <v>95.4184383246836</v>
       </c>
       <c r="H14" t="n">
-        <v>80.7272699613699</v>
+        <v>41.3998578238349</v>
       </c>
       <c r="I14" t="n">
-        <v>41.3998578238349</v>
+        <v>54.0391938630731</v>
       </c>
       <c r="J14" t="n">
-        <v>54.0391938630731</v>
-      </c>
-      <c r="K14" t="n">
-        <v>67.3556554724323</v>
-      </c>
-      <c r="L14" t="n">
         <v>33.5182616736015</v>
       </c>
     </row>
@@ -1025,30 +935,24 @@
         <v>51.6423798306898</v>
       </c>
       <c r="D15" t="n">
-        <v>30.26476844369</v>
+        <v>42.0249653259362</v>
       </c>
       <c r="E15" t="n">
-        <v>42.0249653259362</v>
+        <v>83.3492915046138</v>
       </c>
       <c r="F15" t="n">
-        <v>92.1395971486906</v>
+        <v>22.3167371220098</v>
       </c>
       <c r="G15" t="n">
-        <v>29.3032601819591</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.16277567380813</v>
+        <v>61.0293780554406</v>
       </c>
       <c r="I15" t="n">
-        <v>61.0293780554406</v>
+        <v>46.956855317764</v>
       </c>
       <c r="J15" t="n">
-        <v>46.956855317764</v>
-      </c>
-      <c r="K15" t="n">
-        <v>50.7319278917758</v>
-      </c>
-      <c r="L15" t="n">
         <v>37.7253814147018</v>
       </c>
     </row>
@@ -1063,30 +967,24 @@
         <v>8.98202908161662</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9310152316373</v>
+        <v>26.9070735090153</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9070735090153</v>
+        <v>34.7730857061634</v>
       </c>
       <c r="F16" t="n">
-        <v>41.4415136065735</v>
+        <v>38.0058046948459</v>
       </c>
       <c r="G16" t="n">
-        <v>45.3478155733725</v>
+        <v>35.9352301314531</v>
       </c>
       <c r="H16" t="n">
-        <v>26.7416246294308</v>
+        <v>50.1542579643638</v>
       </c>
       <c r="I16" t="n">
-        <v>50.1542579643638</v>
+        <v>22.7902091933301</v>
       </c>
       <c r="J16" t="n">
-        <v>22.7902091933301</v>
-      </c>
-      <c r="K16" t="n">
-        <v>31.0960847658533</v>
-      </c>
-      <c r="L16" t="n">
         <v>35.7836338418863</v>
       </c>
     </row>
@@ -1101,30 +999,24 @@
         <v>7.74621866768375</v>
       </c>
       <c r="D17" t="n">
-        <v>41.0924706222326</v>
+        <v>38.4188626907073</v>
       </c>
       <c r="E17" t="n">
-        <v>38.4188626907073</v>
+        <v>5.16696066855095</v>
       </c>
       <c r="F17" t="n">
-        <v>32.8679979399199</v>
+        <v>34.7961429605564</v>
       </c>
       <c r="G17" t="n">
-        <v>41.3844460925463</v>
+        <v>93.7642856522079</v>
       </c>
       <c r="H17" t="n">
-        <v>54.4190630471259</v>
+        <v>45.7268422725961</v>
       </c>
       <c r="I17" t="n">
-        <v>45.7268422725961</v>
+        <v>15.689385018399</v>
       </c>
       <c r="J17" t="n">
-        <v>15.689385018399</v>
-      </c>
-      <c r="K17" t="n">
-        <v>25.4435530791838</v>
-      </c>
-      <c r="L17" t="n">
         <v>32.1775312066574</v>
       </c>
     </row>
@@ -1139,30 +1031,24 @@
         <v>30.3399073058965</v>
       </c>
       <c r="D18" t="n">
-        <v>13.3071733836815</v>
+        <v>31.2066574202497</v>
       </c>
       <c r="E18" t="n">
-        <v>31.2066574202497</v>
+        <v>43.1613236570007</v>
       </c>
       <c r="F18" t="n">
-        <v>62.9126788241793</v>
+        <v>33.7192216288119</v>
       </c>
       <c r="G18" t="n">
-        <v>43.3155160797462</v>
+        <v>1.40626163610136</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>48.306088069387</v>
       </c>
       <c r="I18" t="n">
-        <v>48.306088069387</v>
+        <v>24.5741040402366</v>
       </c>
       <c r="J18" t="n">
-        <v>24.5741040402366</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23.7171615552926</v>
-      </c>
-      <c r="L18" t="n">
         <v>31.9463707813222</v>
       </c>
     </row>
@@ -1177,30 +1063,24 @@
         <v>35.6361861471296</v>
       </c>
       <c r="D19" t="n">
-        <v>16.7518406599637</v>
+        <v>26.2135922330097</v>
       </c>
       <c r="E19" t="n">
-        <v>26.2135922330097</v>
+        <v>32.0673947362406</v>
       </c>
       <c r="F19" t="n">
-        <v>45.9774744950836</v>
+        <v>47.8109406658124</v>
       </c>
       <c r="G19" t="n">
-        <v>61.7166429683906</v>
+        <v>22.8031203704856</v>
       </c>
       <c r="H19" t="n">
-        <v>27.2512438696268</v>
+        <v>41.8099079280162</v>
       </c>
       <c r="I19" t="n">
-        <v>41.8099079280162</v>
+        <v>39.7162402281961</v>
       </c>
       <c r="J19" t="n">
-        <v>39.7162402281961</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14.5773755199539</v>
-      </c>
-      <c r="L19" t="n">
         <v>36.1072584373555</v>
       </c>
     </row>
@@ -1215,30 +1095,24 @@
         <v>53.1726272315622</v>
       </c>
       <c r="D20" t="n">
-        <v>13.6731125162166</v>
+        <v>50.9015256588072</v>
       </c>
       <c r="E20" t="n">
-        <v>50.9015256588072</v>
+        <v>16.5201358676526</v>
       </c>
       <c r="F20" t="n">
-        <v>27.8472525041703</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>37.7729157070475</v>
       </c>
       <c r="H20" t="n">
-        <v>28.7741450016931</v>
+        <v>54.8570858293407</v>
       </c>
       <c r="I20" t="n">
-        <v>54.8570858293407</v>
+        <v>30.6818026932478</v>
       </c>
       <c r="J20" t="n">
-        <v>30.6818026932478</v>
-      </c>
-      <c r="K20" t="n">
-        <v>15.1120312228448</v>
-      </c>
-      <c r="L20" t="n">
         <v>39.7133610725844</v>
       </c>
     </row>
@@ -1253,30 +1127,24 @@
         <v>3.2365947010516</v>
       </c>
       <c r="D21" t="n">
-        <v>14.9111404923542</v>
+        <v>42.0249653259362</v>
       </c>
       <c r="E21" t="n">
-        <v>42.0249653259362</v>
+        <v>25.9755547878788</v>
       </c>
       <c r="F21" t="n">
-        <v>43.1336253496455</v>
+        <v>42.7199738199452</v>
       </c>
       <c r="G21" t="n">
-        <v>57.0294732501442</v>
+        <v>50.3101085278835</v>
       </c>
       <c r="H21" t="n">
-        <v>52.9880314868463</v>
+        <v>20.8962889358031</v>
       </c>
       <c r="I21" t="n">
-        <v>20.8962889358031</v>
+        <v>30.0234212156931</v>
       </c>
       <c r="J21" t="n">
-        <v>30.0234212156931</v>
-      </c>
-      <c r="K21" t="n">
-        <v>22.9848938352793</v>
-      </c>
-      <c r="L21" t="n">
         <v>36.9856680536292</v>
       </c>
     </row>
@@ -1291,30 +1159,24 @@
         <v>33.6610417144655</v>
       </c>
       <c r="D22" t="n">
-        <v>40.3704284972671</v>
+        <v>18.0305131761442</v>
       </c>
       <c r="E22" t="n">
-        <v>18.0305131761442</v>
+        <v>12.0732229754648</v>
       </c>
       <c r="F22" t="n">
-        <v>27.9452481629902</v>
+        <v>49.5801778337267</v>
       </c>
       <c r="G22" t="n">
-        <v>56.7756505697147</v>
+        <v>29.7778472694695</v>
       </c>
       <c r="H22" t="n">
-        <v>21.2491915797036</v>
+        <v>48.0212218793174</v>
       </c>
       <c r="I22" t="n">
-        <v>48.0212218793174</v>
+        <v>27.6386670823666</v>
       </c>
       <c r="J22" t="n">
-        <v>27.6386670823666</v>
-      </c>
-      <c r="K22" t="n">
-        <v>36.26320901967</v>
-      </c>
-      <c r="L22" t="n">
         <v>33.7031900138696</v>
       </c>
     </row>
@@ -1329,30 +1191,24 @@
         <v>46.0183648315827</v>
       </c>
       <c r="D23" t="n">
-        <v>53.5080580693887</v>
+        <v>41.0540915395284</v>
       </c>
       <c r="E23" t="n">
-        <v>41.0540915395284</v>
+        <v>2.13005845258555</v>
       </c>
       <c r="F23" t="n">
-        <v>28.3838649683734</v>
+        <v>32.3176565149853</v>
       </c>
       <c r="G23" t="n">
-        <v>38.0993674244018</v>
+        <v>72.4042030575831</v>
       </c>
       <c r="H23" t="n">
-        <v>50.1263985265166</v>
+        <v>64.9497337568754</v>
       </c>
       <c r="I23" t="n">
-        <v>64.9497337568754</v>
+        <v>34.832459122504</v>
       </c>
       <c r="J23" t="n">
-        <v>34.832459122504</v>
-      </c>
-      <c r="K23" t="n">
-        <v>47.0409048827154</v>
-      </c>
-      <c r="L23" t="n">
         <v>31.8076745261211</v>
       </c>
     </row>
@@ -1367,30 +1223,24 @@
         <v>24.8179708214638</v>
       </c>
       <c r="D24" t="n">
-        <v>47.2442280814904</v>
+        <v>36.3384188626907</v>
       </c>
       <c r="E24" t="n">
-        <v>36.3384188626907</v>
+        <v>17.9793130211217</v>
       </c>
       <c r="F24" t="n">
-        <v>34.1021279815293</v>
+        <v>48.1103406419594</v>
       </c>
       <c r="G24" t="n">
-        <v>61.3320226433369</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>76.4874118258369</v>
+        <v>57.8441911517678</v>
       </c>
       <c r="I24" t="n">
-        <v>57.8441911517678</v>
+        <v>31.702751804246</v>
       </c>
       <c r="J24" t="n">
-        <v>31.702751804246</v>
-      </c>
-      <c r="K24" t="n">
-        <v>52.2140104817205</v>
-      </c>
-      <c r="L24" t="n">
         <v>37.4942209893666</v>
       </c>
     </row>
@@ -1405,30 +1255,24 @@
         <v>24.2719197596916</v>
       </c>
       <c r="D25" t="n">
-        <v>55.8897452942825</v>
+        <v>35.0901525658807</v>
       </c>
       <c r="E25" t="n">
-        <v>35.0901525658807</v>
+        <v>14.0452100157547</v>
       </c>
       <c r="F25" t="n">
-        <v>23.9193641322839</v>
+        <v>63.4340523462971</v>
       </c>
       <c r="G25" t="n">
-        <v>76.5485097435885</v>
+        <v>84.0317990392841</v>
       </c>
       <c r="H25" t="n">
-        <v>68.4765093817353</v>
+        <v>63.279453661154</v>
       </c>
       <c r="I25" t="n">
-        <v>63.279453661154</v>
+        <v>24.7963177678589</v>
       </c>
       <c r="J25" t="n">
-        <v>24.7963177678589</v>
-      </c>
-      <c r="K25" t="n">
-        <v>35.8843459433973</v>
-      </c>
-      <c r="L25" t="n">
         <v>42.4872861766066</v>
       </c>
     </row>
@@ -1443,30 +1287,24 @@
         <v>25.2990627224212</v>
       </c>
       <c r="D26" t="n">
-        <v>4.51906445441904</v>
+        <v>56.0332871012483</v>
       </c>
       <c r="E26" t="n">
-        <v>56.0332871012483</v>
+        <v>22.9962975766979</v>
       </c>
       <c r="F26" t="n">
-        <v>21.4844460237971</v>
+        <v>29.2571838533825</v>
       </c>
       <c r="G26" t="n">
-        <v>37.5876895962645</v>
+        <v>70.6115579491904</v>
       </c>
       <c r="H26" t="n">
-        <v>64.367739713539</v>
+        <v>42.6206634128704</v>
       </c>
       <c r="I26" t="n">
-        <v>42.6206634128704</v>
+        <v>20.9005542942276</v>
       </c>
       <c r="J26" t="n">
-        <v>20.9005542942276</v>
-      </c>
-      <c r="K26" t="n">
-        <v>31.1675435941206</v>
-      </c>
-      <c r="L26" t="n">
         <v>37.7716134997688</v>
       </c>
     </row>
@@ -1481,30 +1319,24 @@
         <v>13.13068040057</v>
       </c>
       <c r="D27" t="n">
-        <v>33.0938210336603</v>
+        <v>22.1914008321775</v>
       </c>
       <c r="E27" t="n">
-        <v>22.1914008321775</v>
+        <v>17.428036655181</v>
       </c>
       <c r="F27" t="n">
-        <v>33.3502191927511</v>
+        <v>37.987770019848</v>
       </c>
       <c r="G27" t="n">
-        <v>43.8592707337571</v>
+        <v>30.1243666513128</v>
       </c>
       <c r="H27" t="n">
-        <v>6.46094490181927</v>
+        <v>48.3174537630506</v>
       </c>
       <c r="I27" t="n">
-        <v>48.3174537630506</v>
+        <v>34.0300773278976</v>
       </c>
       <c r="J27" t="n">
-        <v>34.0300773278976</v>
-      </c>
-      <c r="K27" t="n">
-        <v>37.4251828467248</v>
-      </c>
-      <c r="L27" t="n">
         <v>34.0268146093389</v>
       </c>
     </row>
@@ -1519,30 +1351,24 @@
         <v>63.6604888607015</v>
       </c>
       <c r="D28" t="n">
-        <v>74.662663052095</v>
+        <v>23.8557558945908</v>
       </c>
       <c r="E28" t="n">
-        <v>23.8557558945908</v>
+        <v>34.9714494999436</v>
       </c>
       <c r="F28" t="n">
-        <v>52.4365485429179</v>
+        <v>28.1368860534591</v>
       </c>
       <c r="G28" t="n">
-        <v>36.8440484397342</v>
+        <v>21.591497213007</v>
       </c>
       <c r="H28" t="n">
-        <v>21.2572314630415</v>
+        <v>66.2644738239369</v>
       </c>
       <c r="I28" t="n">
-        <v>66.2644738239369</v>
+        <v>35.4526264220054</v>
       </c>
       <c r="J28" t="n">
-        <v>35.4526264220054</v>
-      </c>
-      <c r="K28" t="n">
-        <v>42.4358640824783</v>
-      </c>
-      <c r="L28" t="n">
         <v>22.792417938049</v>
       </c>
     </row>
@@ -1557,30 +1383,24 @@
         <v>29.5667100047447</v>
       </c>
       <c r="D29" t="n">
-        <v>19.5511081616798</v>
+        <v>22.3300970873786</v>
       </c>
       <c r="E29" t="n">
-        <v>22.3300970873786</v>
+        <v>13.0914484290678</v>
       </c>
       <c r="F29" t="n">
-        <v>37.7703680620233</v>
+        <v>18.5829681180302</v>
       </c>
       <c r="G29" t="n">
-        <v>24.3283263523202</v>
+        <v>56.8299830378048</v>
       </c>
       <c r="H29" t="n">
-        <v>34.1260514118205</v>
+        <v>51.5007678845783</v>
       </c>
       <c r="I29" t="n">
-        <v>51.5007678845783</v>
+        <v>35.2775517348308</v>
       </c>
       <c r="J29" t="n">
-        <v>35.2775517348308</v>
-      </c>
-      <c r="K29" t="n">
-        <v>37.1114969332605</v>
-      </c>
-      <c r="L29" t="n">
         <v>20.1109570041609</v>
       </c>
     </row>
@@ -1595,30 +1415,24 @@
         <v>12.6054563390461</v>
       </c>
       <c r="D30" t="n">
-        <v>17.1207195860069</v>
+        <v>14.1470180305132</v>
       </c>
       <c r="E30" t="n">
-        <v>14.1470180305132</v>
+        <v>42.4041109541667</v>
       </c>
       <c r="F30" t="n">
-        <v>53.0930686214652</v>
+        <v>19.2974686052944</v>
       </c>
       <c r="G30" t="n">
-        <v>26.3942618582084</v>
+        <v>82.5886688162137</v>
       </c>
       <c r="H30" t="n">
-        <v>47.1877761555749</v>
+        <v>50.2627134919847</v>
       </c>
       <c r="I30" t="n">
-        <v>50.2627134919847</v>
+        <v>47.3907221145969</v>
       </c>
       <c r="J30" t="n">
-        <v>47.3907221145969</v>
-      </c>
-      <c r="K30" t="n">
-        <v>37.0133032009144</v>
-      </c>
-      <c r="L30" t="n">
         <v>31.8076745261211</v>
       </c>
     </row>
@@ -1633,30 +1447,24 @@
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>74.3680818550567</v>
+        <v>58.9459084604716</v>
       </c>
       <c r="E31" t="n">
-        <v>58.9459084604716</v>
+        <v>91.8661218765531</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>50.576376929737</v>
       </c>
       <c r="G31" t="n">
-        <v>63.7396735891122</v>
+        <v>44.9507414562379</v>
       </c>
       <c r="H31" t="n">
-        <v>37.186571750151</v>
+        <v>95.4168270298845</v>
       </c>
       <c r="I31" t="n">
-        <v>95.4168270298845</v>
+        <v>60.4366755997206</v>
       </c>
       <c r="J31" t="n">
-        <v>60.4366755997206</v>
-      </c>
-      <c r="K31" t="n">
-        <v>40.4862807304627</v>
-      </c>
-      <c r="L31" t="n">
         <v>55.6171983356449</v>
       </c>
     </row>
@@ -1671,30 +1479,24 @@
         <v>68.7045704601157</v>
       </c>
       <c r="D32" t="n">
-        <v>29.9700407503247</v>
+        <v>93.7586685159501</v>
       </c>
       <c r="E32" t="n">
-        <v>93.7586685159501</v>
+        <v>73.2518776980314</v>
       </c>
       <c r="F32" t="n">
-        <v>65.2620442950559</v>
+        <v>9.01882839404152</v>
       </c>
       <c r="G32" t="n">
-        <v>10.1305721960023</v>
+        <v>55.9726032884065</v>
       </c>
       <c r="H32" t="n">
-        <v>55.8266823922776</v>
+        <v>45.1647554230622</v>
       </c>
       <c r="I32" t="n">
-        <v>45.1647554230622</v>
+        <v>65.9749172621659</v>
       </c>
       <c r="J32" t="n">
-        <v>65.9749172621659</v>
-      </c>
-      <c r="K32" t="n">
-        <v>58.5294783153576</v>
-      </c>
-      <c r="L32" t="n">
         <v>66.9902912621359</v>
       </c>
     </row>
@@ -1709,30 +1511,24 @@
         <v>29.2201813263821</v>
       </c>
       <c r="D33" t="n">
-        <v>71.2503123406913</v>
+        <v>48.2662968099861</v>
       </c>
       <c r="E33" t="n">
-        <v>48.2662968099861</v>
+        <v>55.7077862128053</v>
       </c>
       <c r="F33" t="n">
-        <v>65.0449673870857</v>
+        <v>16.372859565691</v>
       </c>
       <c r="G33" t="n">
-        <v>16.0595794311593</v>
+        <v>42.621272113753</v>
       </c>
       <c r="H33" t="n">
-        <v>40.4508273718579</v>
+        <v>33.3555307792544</v>
       </c>
       <c r="I33" t="n">
-        <v>33.3555307792544</v>
+        <v>47.5165193968273</v>
       </c>
       <c r="J33" t="n">
-        <v>47.5165193968273</v>
-      </c>
-      <c r="K33" t="n">
-        <v>55.2747841281169</v>
-      </c>
-      <c r="L33" t="n">
         <v>61.9047619047619</v>
       </c>
     </row>
@@ -1747,30 +1543,24 @@
         <v>44.624806403984</v>
       </c>
       <c r="D34" t="n">
-        <v>64.6039992933347</v>
+        <v>43.6893203883495</v>
       </c>
       <c r="E34" t="n">
-        <v>43.6893203883495</v>
+        <v>38.1180689960441</v>
       </c>
       <c r="F34" t="n">
-        <v>42.1797802510466</v>
+        <v>40.3053912128073</v>
       </c>
       <c r="G34" t="n">
-        <v>50.8182829525739</v>
+        <v>28.2213977126904</v>
       </c>
       <c r="H34" t="n">
-        <v>20.8403060842336</v>
+        <v>62.0992760795348</v>
       </c>
       <c r="I34" t="n">
-        <v>62.0992760795348</v>
+        <v>25.802108124889</v>
       </c>
       <c r="J34" t="n">
-        <v>25.802108124889</v>
-      </c>
-      <c r="K34" t="n">
-        <v>54.2280362573339</v>
-      </c>
-      <c r="L34" t="n">
         <v>38.3726306056403</v>
       </c>
     </row>
@@ -1785,30 +1575,24 @@
         <v>3.56133664430091</v>
       </c>
       <c r="D35" t="n">
-        <v>26.8297971379757</v>
+        <v>23.1622746185853</v>
       </c>
       <c r="E35" t="n">
-        <v>23.1622746185853</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>25.6587173098959</v>
       </c>
       <c r="G35" t="n">
-        <v>32.9184283886493</v>
+        <v>60.5563955700639</v>
       </c>
       <c r="H35" t="n">
-        <v>44.6845526407194</v>
+        <v>38.3286781889759</v>
       </c>
       <c r="I35" t="n">
-        <v>38.3286781889759</v>
+        <v>21.0463058875485</v>
       </c>
       <c r="J35" t="n">
-        <v>21.0463058875485</v>
-      </c>
-      <c r="K35" t="n">
-        <v>46.2562909021428</v>
-      </c>
-      <c r="L35" t="n">
         <v>25.5201109570042</v>
       </c>
     </row>
@@ -1823,30 +1607,24 @@
         <v>14.9527746143606</v>
       </c>
       <c r="D36" t="n">
-        <v>47.335076275118</v>
+        <v>9.70873786407767</v>
       </c>
       <c r="E36" t="n">
-        <v>9.70873786407767</v>
+        <v>30.19471070904</v>
       </c>
       <c r="F36" t="n">
-        <v>33.2945724641039</v>
+        <v>27.1823475380402</v>
       </c>
       <c r="G36" t="n">
-        <v>34.4605529618112</v>
+        <v>80.14882753347</v>
       </c>
       <c r="H36" t="n">
-        <v>62.6468436553798</v>
+        <v>51.6793292832963</v>
       </c>
       <c r="I36" t="n">
-        <v>51.6793292832963</v>
+        <v>17.6467356275934</v>
       </c>
       <c r="J36" t="n">
-        <v>17.6467356275934</v>
-      </c>
-      <c r="K36" t="n">
-        <v>50.7678573801399</v>
-      </c>
-      <c r="L36" t="n">
         <v>17.5219602404068</v>
       </c>
     </row>
@@ -1861,30 +1639,24 @@
         <v>34.4260956241188</v>
       </c>
       <c r="D37" t="n">
-        <v>78.138698727326</v>
+        <v>19.6948682385576</v>
       </c>
       <c r="E37" t="n">
-        <v>19.6948682385576</v>
+        <v>23.4946409306649</v>
       </c>
       <c r="F37" t="n">
-        <v>27.9354180137909</v>
+        <v>25.6069656338151</v>
       </c>
       <c r="G37" t="n">
-        <v>32.2868482063188</v>
+        <v>97.1914159845989</v>
       </c>
       <c r="H37" t="n">
-        <v>77.7382954154089</v>
+        <v>49.0055051547286</v>
       </c>
       <c r="I37" t="n">
-        <v>49.0055051547286</v>
+        <v>42.304334406244</v>
       </c>
       <c r="J37" t="n">
-        <v>42.304334406244</v>
-      </c>
-      <c r="K37" t="n">
-        <v>41.8245916674813</v>
-      </c>
-      <c r="L37" t="n">
         <v>9.80120203421174</v>
       </c>
     </row>
@@ -1902,23 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="n">
+        <v>13.7406240819317</v>
+      </c>
+      <c r="G38" t="n">
+        <v>95.9123251472763</v>
+      </c>
+      <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="n">
-        <v>93.3000908936435</v>
-      </c>
-      <c r="G38" t="n">
-        <v>22.6495644546083</v>
-      </c>
-      <c r="H38" t="n">
-        <v>100</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38"/>
       <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,40 +1722,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -3524,7 +3292,7 @@
     <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="9.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="3.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="4.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
@@ -3537,28 +3305,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -3566,25 +3334,25 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>804</v>
+        <v>1074</v>
       </c>
       <c r="C2" t="n">
-        <v>471</v>
+        <v>616</v>
       </c>
       <c r="D2" t="n">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18430683648075</v>
+        <v>0.21373073383943</v>
       </c>
       <c r="F2" t="n">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="G2" t="n">
-        <v>888</v>
+        <v>1061</v>
       </c>
       <c r="H2" t="n">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3595,25 +3363,25 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="C3" t="n">
-        <v>427</v>
+        <v>528</v>
       </c>
       <c r="D3" t="n">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="E3" t="n">
-        <v>0.18906415080539</v>
+        <v>0.235775011040968</v>
       </c>
       <c r="F3" t="n">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G3" t="n">
-        <v>578</v>
+        <v>761</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="I3" t="n">
         <v>32</v>
@@ -3624,25 +3392,25 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>326</v>
+        <v>539</v>
       </c>
       <c r="C4" t="n">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="D4" t="n">
-        <v>-53</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00600980881354713</v>
+        <v>0.0854070297995532</v>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G4" t="n">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I4" t="n">
         <v>36</v>
@@ -3653,25 +3421,25 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>568</v>
+        <v>901</v>
       </c>
       <c r="C5" t="n">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="D5" t="n">
-        <v>327</v>
+        <v>582</v>
       </c>
       <c r="E5" t="n">
-        <v>0.249810828440965</v>
+        <v>0.381441263544406</v>
       </c>
       <c r="F5" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G5" t="n">
-        <v>558</v>
+        <v>735</v>
       </c>
       <c r="H5" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I5" t="n">
         <v>36</v>
@@ -3682,25 +3450,25 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>579</v>
+        <v>870</v>
       </c>
       <c r="C6" t="n">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="D6" t="n">
-        <v>452</v>
+        <v>578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.496896043771044</v>
+        <v>0.415904600800434</v>
       </c>
       <c r="F6" t="n">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="G6" t="n">
-        <v>483</v>
+        <v>640</v>
       </c>
       <c r="H6" t="n">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="I6" t="n">
         <v>23</v>
@@ -3711,25 +3479,25 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>636</v>
+        <v>815</v>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="D7" t="n">
-        <v>426</v>
+        <v>537</v>
       </c>
       <c r="E7" t="n">
-        <v>0.393946467475879</v>
+        <v>0.397564581388111</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G7" t="n">
-        <v>487</v>
+        <v>646</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I7" t="n">
         <v>52</v>
@@ -3740,25 +3508,25 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>696</v>
+        <v>954</v>
       </c>
       <c r="C8" t="n">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>384</v>
+        <v>544</v>
       </c>
       <c r="E8" t="n">
-        <v>0.253647276084949</v>
+        <v>0.304602415128731</v>
       </c>
       <c r="F8" t="n">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="G8" t="n">
-        <v>569</v>
+        <v>716</v>
       </c>
       <c r="H8" t="n">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="I8" t="n">
         <v>68</v>
@@ -3769,28 +3537,28 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>1124</v>
+        <v>1275</v>
       </c>
       <c r="C9" t="n">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="D9" t="n">
-        <v>955</v>
+        <v>1010</v>
       </c>
       <c r="E9" t="n">
-        <v>0.560279296726665</v>
+        <v>0.590126861442651</v>
       </c>
       <c r="F9" t="n">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="G9" t="n">
-        <v>625</v>
+        <v>732</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="I9" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -3798,25 +3566,25 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>748</v>
+        <v>951</v>
       </c>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="D10" t="n">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="E10" t="n">
-        <v>0.470252211556559</v>
+        <v>0.396761365942952</v>
       </c>
       <c r="F10" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="G10" t="n">
-        <v>676</v>
+        <v>802</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="I10" t="n">
         <v>89</v>
@@ -3827,25 +3595,25 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>602</v>
+        <v>736</v>
       </c>
       <c r="C11" t="n">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="D11" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E11" t="n">
-        <v>0.264241186023364</v>
+        <v>0.263552307611714</v>
       </c>
       <c r="F11" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G11" t="n">
-        <v>412</v>
+        <v>573</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I11" t="n">
         <v>49</v>
@@ -3856,25 +3624,25 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>1055</v>
+        <v>1306</v>
       </c>
       <c r="C12" t="n">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="D12" t="n">
-        <v>897</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>0.567592592592593</v>
+        <v>0.527975219225219</v>
       </c>
       <c r="F12" t="n">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="G12" t="n">
-        <v>615</v>
+        <v>791</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="I12" t="n">
         <v>61</v>
@@ -3885,25 +3653,25 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>543</v>
+        <v>657</v>
       </c>
       <c r="C13" t="n">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="D13" t="n">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.407467671753386</v>
+        <v>0.382377318091604</v>
       </c>
       <c r="F13" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G13" t="n">
-        <v>467</v>
+        <v>562</v>
       </c>
       <c r="H13" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I13" t="n">
         <v>69</v>
@@ -3914,25 +3682,25 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>414</v>
+        <v>544</v>
       </c>
       <c r="C14" t="n">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="D14" t="n">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E14" t="n">
-        <v>0.281528279181709</v>
+        <v>0.3202134808633</v>
       </c>
       <c r="F14" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G14" t="n">
-        <v>609</v>
+        <v>738</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I14" t="n">
         <v>54</v>
@@ -3943,25 +3711,25 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>730</v>
+        <v>937</v>
       </c>
       <c r="C15" t="n">
+        <v>259</v>
+      </c>
+      <c r="D15" t="n">
+        <v>678</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.461360687318875</v>
+      </c>
+      <c r="F15" t="n">
+        <v>170</v>
+      </c>
+      <c r="G15" t="n">
+        <v>388</v>
+      </c>
+      <c r="H15" t="n">
         <v>142</v>
-      </c>
-      <c r="D15" t="n">
-        <v>588</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.489909297052154</v>
-      </c>
-      <c r="F15" t="n">
-        <v>161</v>
-      </c>
-      <c r="G15" t="n">
-        <v>298</v>
-      </c>
-      <c r="H15" t="n">
-        <v>79</v>
       </c>
       <c r="I15" t="n">
         <v>37</v>
@@ -3972,25 +3740,25 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>626</v>
+        <v>857</v>
       </c>
       <c r="C16" t="n">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="D16" t="n">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="E16" t="n">
-        <v>0.403006715506716</v>
+        <v>0.370480214230214</v>
       </c>
       <c r="F16" t="n">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G16" t="n">
-        <v>434</v>
+        <v>576</v>
       </c>
       <c r="H16" t="n">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="I16" t="n">
         <v>47</v>
@@ -4001,25 +3769,25 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>731</v>
+        <v>787</v>
       </c>
       <c r="C17" t="n">
-        <v>308</v>
+        <v>546</v>
       </c>
       <c r="D17" t="n">
-        <v>423</v>
+        <v>241</v>
       </c>
       <c r="E17" t="n">
-        <v>0.355271039233303</v>
+        <v>0.182056535358422</v>
       </c>
       <c r="F17" t="n">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G17" t="n">
-        <v>574</v>
+        <v>840</v>
       </c>
       <c r="H17" t="n">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I17" t="n">
         <v>27</v>
@@ -4030,28 +3798,28 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>933</v>
+        <v>1121</v>
       </c>
       <c r="C18" t="n">
-        <v>284</v>
+        <v>604</v>
       </c>
       <c r="D18" t="n">
-        <v>649</v>
+        <v>517</v>
       </c>
       <c r="E18" t="n">
-        <v>0.426861212639656</v>
+        <v>0.322521556952695</v>
       </c>
       <c r="F18" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G18" t="n">
-        <v>331</v>
+        <v>458</v>
       </c>
       <c r="H18" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I18" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -4059,25 +3827,25 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>578</v>
+        <v>753</v>
       </c>
       <c r="C19" t="n">
-        <v>247</v>
+        <v>469</v>
       </c>
       <c r="D19" t="n">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="E19" t="n">
-        <v>0.304847704847705</v>
+        <v>0.233096946912736</v>
       </c>
       <c r="F19" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G19" t="n">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="H19" t="n">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I19" t="n">
         <v>33</v>
@@ -4088,28 +3856,28 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>780</v>
+        <v>953</v>
       </c>
       <c r="C20" t="n">
-        <v>551</v>
+        <v>923</v>
       </c>
       <c r="D20" t="n">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>0.135013227513228</v>
+        <v>0.0776324469181612</v>
       </c>
       <c r="F20" t="n">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="G20" t="n">
-        <v>597</v>
+        <v>786</v>
       </c>
       <c r="H20" t="n">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="I20" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
@@ -4117,28 +3885,28 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>922</v>
+        <v>1059</v>
       </c>
       <c r="C21" t="n">
-        <v>301</v>
+        <v>552</v>
       </c>
       <c r="D21" t="n">
-        <v>621</v>
+        <v>507</v>
       </c>
       <c r="E21" t="n">
-        <v>0.443837514012953</v>
+        <v>0.340962692278482</v>
       </c>
       <c r="F21" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G21" t="n">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="H21" t="n">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="I21" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -4146,25 +3914,25 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>596</v>
+        <v>703</v>
       </c>
       <c r="C22" t="n">
-        <v>328</v>
+        <v>558</v>
       </c>
       <c r="D22" t="n">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20956749672346</v>
+        <v>0.121180348703284</v>
       </c>
       <c r="F22" t="n">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G22" t="n">
-        <v>428</v>
+        <v>576</v>
       </c>
       <c r="H22" t="n">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="I22" t="n">
         <v>50</v>
@@ -4175,28 +3943,28 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>866</v>
+        <v>1067</v>
       </c>
       <c r="C23" t="n">
-        <v>598</v>
+        <v>1115</v>
       </c>
       <c r="D23" t="n">
-        <v>268</v>
+        <v>-48</v>
       </c>
       <c r="E23" t="n">
-        <v>0.164036227751131</v>
+        <v>0.0193907364533714</v>
       </c>
       <c r="F23" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="G23" t="n">
-        <v>806</v>
+        <v>1087</v>
       </c>
       <c r="H23" t="n">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="I23" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -4204,25 +3972,25 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>940</v>
+        <v>1132</v>
       </c>
       <c r="C24" t="n">
-        <v>469</v>
+        <v>767</v>
       </c>
       <c r="D24" t="n">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="E24" t="n">
-        <v>0.282944042034951</v>
+        <v>0.191856232765324</v>
       </c>
       <c r="F24" t="n">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G24" t="n">
-        <v>869</v>
+        <v>1110</v>
       </c>
       <c r="H24" t="n">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="I24" t="n">
         <v>69</v>
@@ -4233,25 +4001,25 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>927</v>
+        <v>1108</v>
       </c>
       <c r="C25" t="n">
-        <v>548</v>
+        <v>795</v>
       </c>
       <c r="D25" t="n">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="E25" t="n">
-        <v>0.224793488824101</v>
+        <v>0.1697139453517</v>
       </c>
       <c r="F25" t="n">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="G25" t="n">
-        <v>790</v>
+        <v>983</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="I25" t="n">
         <v>53</v>
@@ -4262,25 +4030,25 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>712</v>
+        <v>829</v>
       </c>
       <c r="C26" t="n">
-        <v>437</v>
+        <v>662</v>
       </c>
       <c r="D26" t="n">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="E26" t="n">
-        <v>0.206037851037851</v>
+        <v>0.220875420875421</v>
       </c>
       <c r="F26" t="n">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G26" t="n">
-        <v>762</v>
+        <v>906</v>
       </c>
       <c r="H26" t="n">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="I26" t="n">
         <v>77</v>
@@ -4291,25 +4059,25 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>804</v>
+        <v>916</v>
       </c>
       <c r="C27" t="n">
-        <v>306</v>
+        <v>529</v>
       </c>
       <c r="D27" t="n">
-        <v>498</v>
+        <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0.332077734675137</v>
+        <v>0.238268459534693</v>
       </c>
       <c r="F27" t="n">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G27" t="n">
-        <v>335</v>
+        <v>544</v>
       </c>
       <c r="H27" t="n">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I27" t="n">
         <v>25</v>
@@ -4320,28 +4088,28 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>624</v>
+        <v>710</v>
       </c>
       <c r="C28" t="n">
-        <v>321</v>
+        <v>566</v>
       </c>
       <c r="D28" t="n">
-        <v>303</v>
+        <v>144</v>
       </c>
       <c r="E28" t="n">
-        <v>0.227628410914928</v>
+        <v>0.14400911198664</v>
       </c>
       <c r="F28" t="n">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G28" t="n">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="H28" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I28" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
@@ -4349,28 +4117,28 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="C29" t="n">
-        <v>412</v>
+        <v>652</v>
       </c>
       <c r="D29" t="n">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="E29" t="n">
-        <v>0.283734399461402</v>
+        <v>0.142928568299488</v>
       </c>
       <c r="F29" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G29" t="n">
-        <v>506</v>
+        <v>719</v>
       </c>
       <c r="H29" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I29" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -4378,28 +4146,28 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>870</v>
+        <v>1041</v>
       </c>
       <c r="C30" t="n">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="D30" t="n">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E30" t="n">
-        <v>0.456945764262837</v>
+        <v>0.401921104447237</v>
       </c>
       <c r="F30" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G30" t="n">
-        <v>487</v>
+        <v>714</v>
       </c>
       <c r="H30" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="I30" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -4407,25 +4175,25 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>852</v>
+        <v>1147</v>
       </c>
       <c r="C31" t="n">
-        <v>384</v>
+        <v>701</v>
       </c>
       <c r="D31" t="n">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="E31" t="n">
-        <v>0.329937613519703</v>
+        <v>0.309954763312972</v>
       </c>
       <c r="F31" t="n">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G31" t="n">
-        <v>622</v>
+        <v>792</v>
       </c>
       <c r="H31" t="n">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="I31" t="n">
         <v>51</v>
@@ -4436,25 +4204,25 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>662</v>
+        <v>803</v>
       </c>
       <c r="C32" t="n">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="D32" t="n">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E32" t="n">
-        <v>0.27525649873476</v>
+        <v>0.33251228642533</v>
       </c>
       <c r="F32" t="n">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G32" t="n">
-        <v>630</v>
+        <v>732</v>
       </c>
       <c r="H32" t="n">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="I32" t="n">
         <v>44</v>
@@ -4465,25 +4233,25 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>708</v>
+        <v>805</v>
       </c>
       <c r="C33" t="n">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="D33" t="n">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="E33" t="n">
-        <v>0.444749495889561</v>
+        <v>0.404012672090848</v>
       </c>
       <c r="F33" t="n">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="G33" t="n">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="H33" t="n">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="I33" t="n">
         <v>29</v>
@@ -4494,25 +4262,25 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>590</v>
+        <v>777</v>
       </c>
       <c r="C34" t="n">
-        <v>295</v>
+        <v>500</v>
       </c>
       <c r="D34" t="n">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E34" t="n">
-        <v>0.245939517499151</v>
+        <v>0.232421384256247</v>
       </c>
       <c r="F34" t="n">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G34" t="n">
-        <v>426</v>
+        <v>569</v>
       </c>
       <c r="H34" t="n">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I34" t="n">
         <v>67</v>
@@ -4523,25 +4291,25 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>523</v>
+        <v>687</v>
       </c>
       <c r="C35" t="n">
-        <v>291</v>
+        <v>427</v>
       </c>
       <c r="D35" t="n">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="E35" t="n">
-        <v>0.165800604387561</v>
+        <v>0.165938107785934</v>
       </c>
       <c r="F35" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G35" t="n">
-        <v>458</v>
+        <v>603</v>
       </c>
       <c r="H35" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="I35" t="n">
         <v>31</v>
@@ -4552,25 +4320,25 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>660</v>
+        <v>790</v>
       </c>
       <c r="C36" t="n">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="D36" t="n">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="E36" t="n">
-        <v>0.323085901027078</v>
+        <v>0.311995303171774</v>
       </c>
       <c r="F36" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="G36" t="n">
-        <v>590</v>
+        <v>751</v>
       </c>
       <c r="H36" t="n">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="I36" t="n">
         <v>38</v>
@@ -4581,25 +4349,25 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>524</v>
+        <v>623</v>
       </c>
       <c r="C37" t="n">
-        <v>356</v>
+        <v>521</v>
       </c>
       <c r="D37" t="n">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="E37" t="n">
-        <v>0.206427170712885</v>
+        <v>0.186726216396546</v>
       </c>
       <c r="F37" t="n">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G37" t="n">
-        <v>588</v>
+        <v>734</v>
       </c>
       <c r="H37" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I37" t="n">
         <v>52</v>
@@ -4610,25 +4378,25 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D38" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E38" t="n">
-        <v>0.383333333333333</v>
+        <v>0.438304093567251</v>
       </c>
       <c r="F38" t="n">
         <v>39</v>
       </c>
       <c r="G38" t="n">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I38" t="n">
         <v>7</v>
@@ -4660,16 +4428,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
